--- a/Jogos_do_Dia/2023-02-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -844,13 +844,13 @@
         <v>78</v>
       </c>
       <c r="F2">
-        <v>3.69</v>
+        <v>5.09</v>
       </c>
       <c r="G2">
-        <v>3.34</v>
+        <v>3.76</v>
       </c>
       <c r="H2">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="I2">
         <v>1.05</v>
@@ -865,10 +865,10 @@
         <v>3.2</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="N2">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="O2">
         <v>1.44</v>
@@ -1052,13 +1052,13 @@
         <v>80</v>
       </c>
       <c r="F4">
-        <v>3.28</v>
+        <v>2.88</v>
       </c>
       <c r="G4">
-        <v>3.44</v>
+        <v>3.4</v>
       </c>
       <c r="H4">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="I4">
         <v>1.05</v>
@@ -1115,28 +1115,28 @@
         <v>2.88</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -1156,13 +1156,13 @@
         <v>81</v>
       </c>
       <c r="F5">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="G5">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="H5">
-        <v>4.48</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>1.08</v>
@@ -1219,28 +1219,28 @@
         <v>2.68</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1260,13 +1260,13 @@
         <v>82</v>
       </c>
       <c r="F6">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="G6">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H6">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="I6">
         <v>1.05</v>
@@ -1323,28 +1323,28 @@
         <v>3.47</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1364,13 +1364,13 @@
         <v>83</v>
       </c>
       <c r="F7">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="G7">
-        <v>3.34</v>
+        <v>3.25</v>
       </c>
       <c r="H7">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>1.07</v>
@@ -1427,28 +1427,28 @@
         <v>2.32</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1468,13 +1468,13 @@
         <v>84</v>
       </c>
       <c r="F8">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="G8">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="I8">
         <v>1.05</v>
@@ -1531,28 +1531,28 @@
         <v>2.7</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>4.12</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1572,13 +1572,13 @@
         <v>85</v>
       </c>
       <c r="F9">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="G9">
-        <v>3.38</v>
+        <v>3.3</v>
       </c>
       <c r="H9">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="I9">
         <v>1.07</v>
@@ -1635,28 +1635,28 @@
         <v>2.57</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1676,13 +1676,13 @@
         <v>86</v>
       </c>
       <c r="F10">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="G10">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="H10">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="I10">
         <v>1.05</v>
@@ -1739,28 +1739,28 @@
         <v>2.97</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1780,13 +1780,13 @@
         <v>87</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G11">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="H11">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="I11">
         <v>1.06</v>
@@ -1843,28 +1843,28 @@
         <v>2.45</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1884,13 +1884,13 @@
         <v>88</v>
       </c>
       <c r="F12">
-        <v>2.61</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="H12">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="I12">
         <v>1.05</v>
@@ -1947,28 +1947,28 @@
         <v>3.14</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1988,13 +1988,13 @@
         <v>89</v>
       </c>
       <c r="F13">
-        <v>3.13</v>
+        <v>2.8</v>
       </c>
       <c r="G13">
-        <v>3.38</v>
+        <v>3.3</v>
       </c>
       <c r="H13">
-        <v>2.28</v>
+        <v>2.45</v>
       </c>
       <c r="I13">
         <v>1.04</v>
@@ -2051,28 +2051,28 @@
         <v>2.76</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -2092,13 +2092,13 @@
         <v>90</v>
       </c>
       <c r="F14">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="G14">
-        <v>3.78</v>
+        <v>3.8</v>
       </c>
       <c r="H14">
-        <v>4.26</v>
+        <v>4.75</v>
       </c>
       <c r="I14">
         <v>1.04</v>
@@ -2155,28 +2155,28 @@
         <v>2.81</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2196,13 +2196,13 @@
         <v>91</v>
       </c>
       <c r="F15">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="G15">
-        <v>5.95</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="I15">
         <v>1.02</v>
@@ -2217,10 +2217,10 @@
         <v>4.3</v>
       </c>
       <c r="M15">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="N15">
-        <v>2.23</v>
+        <v>2</v>
       </c>
       <c r="O15">
         <v>1.3</v>
@@ -2259,28 +2259,28 @@
         <v>2.83</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2300,13 +2300,13 @@
         <v>92</v>
       </c>
       <c r="F16">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="G16">
-        <v>3.28</v>
+        <v>3.15</v>
       </c>
       <c r="H16">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="I16">
         <v>1.07</v>
@@ -2321,10 +2321,10 @@
         <v>3</v>
       </c>
       <c r="M16">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="N16">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="O16">
         <v>1.45</v>
@@ -2363,28 +2363,28 @@
         <v>2.76</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2404,13 +2404,13 @@
         <v>93</v>
       </c>
       <c r="F17">
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
       <c r="G17">
-        <v>3.34</v>
+        <v>3.15</v>
       </c>
       <c r="H17">
-        <v>3.07</v>
+        <v>2.86</v>
       </c>
       <c r="I17">
         <v>1.07</v>
@@ -2425,10 +2425,10 @@
         <v>3.1</v>
       </c>
       <c r="M17">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O17">
         <v>1.45</v>
@@ -2467,28 +2467,28 @@
         <v>3.17</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2508,10 +2508,10 @@
         <v>94</v>
       </c>
       <c r="F18">
-        <v>2.86</v>
+        <v>2.7</v>
       </c>
       <c r="G18">
-        <v>3.18</v>
+        <v>3.1</v>
       </c>
       <c r="H18">
         <v>2.55</v>
@@ -2529,10 +2529,10 @@
         <v>2.75</v>
       </c>
       <c r="M18">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="N18">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O18">
         <v>1.49</v>
@@ -2571,28 +2571,28 @@
         <v>2.29</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2612,13 +2612,13 @@
         <v>95</v>
       </c>
       <c r="F19">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="G19">
-        <v>3.34</v>
+        <v>3.25</v>
       </c>
       <c r="H19">
-        <v>3.14</v>
+        <v>2.95</v>
       </c>
       <c r="I19">
         <v>1.06</v>
@@ -2633,10 +2633,10 @@
         <v>3</v>
       </c>
       <c r="M19">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="N19">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="O19">
         <v>1.45</v>
@@ -2675,28 +2675,28 @@
         <v>2.27</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2716,13 +2716,13 @@
         <v>96</v>
       </c>
       <c r="F20">
-        <v>2.77</v>
+        <v>2.57</v>
       </c>
       <c r="G20">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H20">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="I20">
         <v>1.09</v>
@@ -2737,10 +2737,10 @@
         <v>2.8</v>
       </c>
       <c r="M20">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="N20">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O20">
         <v>1.5</v>
@@ -2779,28 +2779,28 @@
         <v>2.67</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2820,13 +2820,13 @@
         <v>97</v>
       </c>
       <c r="F21">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="G21">
-        <v>3.84</v>
+        <v>3.3</v>
       </c>
       <c r="H21">
-        <v>5.55</v>
+        <v>6</v>
       </c>
       <c r="I21">
         <v>1.09</v>
@@ -2883,28 +2883,28 @@
         <v>2.61</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2924,13 +2924,13 @@
         <v>98</v>
       </c>
       <c r="F22">
-        <v>3.14</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="H22">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="I22">
         <v>1.08</v>
@@ -2945,10 +2945,10 @@
         <v>2.8</v>
       </c>
       <c r="M22">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="N22">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="O22">
         <v>1.47</v>
@@ -2987,28 +2987,28 @@
         <v>3.04</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -3028,13 +3028,13 @@
         <v>99</v>
       </c>
       <c r="F23">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G23">
-        <v>3.34</v>
+        <v>3.25</v>
       </c>
       <c r="H23">
-        <v>4.06</v>
+        <v>3.67</v>
       </c>
       <c r="I23">
         <v>1.08</v>
@@ -3049,10 +3049,10 @@
         <v>2.95</v>
       </c>
       <c r="M23">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="N23">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="O23">
         <v>1.47</v>
@@ -3091,28 +3091,28 @@
         <v>2.52</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="24" spans="1:34">
@@ -3132,13 +3132,13 @@
         <v>100</v>
       </c>
       <c r="F24">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="G24">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="H24">
-        <v>3.94</v>
+        <v>4.5</v>
       </c>
       <c r="I24">
         <v>1.05</v>
@@ -3195,28 +3195,28 @@
         <v>2.53</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="25" spans="1:34">
@@ -3236,13 +3236,13 @@
         <v>101</v>
       </c>
       <c r="F25">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G25">
-        <v>4.74</v>
+        <v>4.75</v>
       </c>
       <c r="H25">
-        <v>7.7</v>
+        <v>11</v>
       </c>
       <c r="I25">
         <v>1.04</v>
@@ -3299,28 +3299,28 @@
         <v>2.93</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -3340,13 +3340,13 @@
         <v>102</v>
       </c>
       <c r="F26">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="G26">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H26">
-        <v>3.14</v>
+        <v>2.93</v>
       </c>
       <c r="I26">
         <v>1.07</v>
@@ -3361,10 +3361,10 @@
         <v>3.1</v>
       </c>
       <c r="M26">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="N26">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="O26">
         <v>1.42</v>
@@ -3403,28 +3403,28 @@
         <v>3.03</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="27" spans="1:34">
@@ -3444,13 +3444,13 @@
         <v>103</v>
       </c>
       <c r="F27">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="G27">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H27">
-        <v>3.17</v>
+        <v>3.1</v>
       </c>
       <c r="I27">
         <v>1.07</v>
@@ -3465,10 +3465,10 @@
         <v>3</v>
       </c>
       <c r="M27">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="N27">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="O27">
         <v>1.42</v>
@@ -3507,28 +3507,28 @@
         <v>2.73</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="28" spans="1:34">
@@ -3548,13 +3548,13 @@
         <v>104</v>
       </c>
       <c r="F28">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="G28">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="H28">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="I28">
         <v>1.08</v>
@@ -3569,10 +3569,10 @@
         <v>3</v>
       </c>
       <c r="M28">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="N28">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="O28">
         <v>1.47</v>
@@ -3620,7 +3620,7 @@
         <v>2.67</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE28">
         <v>1.5</v>
@@ -3632,7 +3632,7 @@
         <v>2.25</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="29" spans="1:34">
@@ -3652,13 +3652,13 @@
         <v>105</v>
       </c>
       <c r="F29">
-        <v>2.51</v>
+        <v>2.4</v>
       </c>
       <c r="G29">
-        <v>3.22</v>
+        <v>3.1</v>
       </c>
       <c r="H29">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>1.08</v>
@@ -3673,10 +3673,10 @@
         <v>2.9</v>
       </c>
       <c r="M29">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="N29">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="O29">
         <v>1.47</v>
@@ -3724,7 +3724,7 @@
         <v>2.2</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE29">
         <v>1.48</v>
@@ -3756,13 +3756,13 @@
         <v>106</v>
       </c>
       <c r="F30">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="G30">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H30">
-        <v>4.32</v>
+        <v>4.6</v>
       </c>
       <c r="I30">
         <v>1.04</v>
@@ -3828,7 +3828,7 @@
         <v>3.48</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE30">
         <v>1.48</v>
@@ -3860,13 +3860,13 @@
         <v>107</v>
       </c>
       <c r="F31">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="G31">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H31">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I31">
         <v>1.07</v>
@@ -3932,7 +3932,7 @@
         <v>2.39</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE31">
         <v>1.43</v>
@@ -3964,13 +3964,13 @@
         <v>108</v>
       </c>
       <c r="F32">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="G32">
-        <v>3.72</v>
+        <v>3.6</v>
       </c>
       <c r="H32">
-        <v>4.22</v>
+        <v>4.33</v>
       </c>
       <c r="I32">
         <v>1.02</v>
@@ -4036,10 +4036,10 @@
         <v>3.26</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF32">
         <v>1.55</v>
@@ -4068,13 +4068,13 @@
         <v>109</v>
       </c>
       <c r="F33">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="G33">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="H33">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I33">
         <v>1.06</v>
@@ -4140,7 +4140,7 @@
         <v>2.91</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE33">
         <v>1.48</v>
@@ -4172,13 +4172,13 @@
         <v>110</v>
       </c>
       <c r="F34">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="G34">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="H34">
-        <v>2.91</v>
+        <v>2.75</v>
       </c>
       <c r="I34">
         <v>1.07</v>
@@ -4193,10 +4193,10 @@
         <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="O34">
         <v>1.4</v>
@@ -4276,13 +4276,13 @@
         <v>111</v>
       </c>
       <c r="F35">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="G35">
-        <v>3.66</v>
+        <v>3.75</v>
       </c>
       <c r="H35">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="I35">
         <v>1.02</v>

--- a/Jogos_do_Dia/2023-02-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -844,13 +844,13 @@
         <v>78</v>
       </c>
       <c r="F2">
-        <v>5.09</v>
+        <v>2.97</v>
       </c>
       <c r="G2">
-        <v>3.76</v>
+        <v>3.2</v>
       </c>
       <c r="H2">
-        <v>1.71</v>
+        <v>2.13</v>
       </c>
       <c r="I2">
         <v>1.05</v>
@@ -865,10 +865,10 @@
         <v>3.2</v>
       </c>
       <c r="M2">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N2">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="O2">
         <v>1.44</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X2">
         <v>2.1</v>
@@ -1052,13 +1052,13 @@
         <v>80</v>
       </c>
       <c r="F4">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="G4">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H4">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="I4">
         <v>1.05</v>
@@ -1073,10 +1073,10 @@
         <v>3.5</v>
       </c>
       <c r="M4">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="N4">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="O4">
         <v>1.36</v>
@@ -1124,7 +1124,7 @@
         <v>1.91</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE4">
         <v>1.29</v>
@@ -1156,10 +1156,10 @@
         <v>81</v>
       </c>
       <c r="F5">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="G5">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -1177,7 +1177,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="N5">
         <v>1.78</v>
@@ -1260,13 +1260,13 @@
         <v>82</v>
       </c>
       <c r="F6">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="G6">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="H6">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="I6">
         <v>1.05</v>
@@ -1281,10 +1281,10 @@
         <v>3.5</v>
       </c>
       <c r="M6">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="N6">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="O6">
         <v>1.36</v>
@@ -1332,7 +1332,7 @@
         <v>1.41</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE6">
         <v>1.29</v>
@@ -1364,13 +1364,13 @@
         <v>83</v>
       </c>
       <c r="F7">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="G7">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I7">
         <v>1.07</v>
@@ -1385,10 +1385,10 @@
         <v>3.25</v>
       </c>
       <c r="M7">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="O7">
         <v>1.4</v>
@@ -1468,13 +1468,13 @@
         <v>84</v>
       </c>
       <c r="F8">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="H8">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I8">
         <v>1.05</v>
@@ -1489,10 +1489,10 @@
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="N8">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="O8">
         <v>1.36</v>
@@ -1572,13 +1572,13 @@
         <v>85</v>
       </c>
       <c r="F9">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="G9">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H9">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I9">
         <v>1.07</v>
@@ -1593,10 +1593,10 @@
         <v>3.25</v>
       </c>
       <c r="M9">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="N9">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="O9">
         <v>1.4</v>
@@ -1676,13 +1676,13 @@
         <v>86</v>
       </c>
       <c r="F10">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="G10">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H10">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="I10">
         <v>1.05</v>
@@ -1697,10 +1697,10 @@
         <v>3.5</v>
       </c>
       <c r="M10">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="N10">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O10">
         <v>1.36</v>
@@ -1780,13 +1780,13 @@
         <v>87</v>
       </c>
       <c r="F11">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H11">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="I11">
         <v>1.06</v>
@@ -1801,7 +1801,7 @@
         <v>3.4</v>
       </c>
       <c r="M11">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="N11">
         <v>1.83</v>
@@ -1884,13 +1884,13 @@
         <v>88</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G12">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H12">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="I12">
         <v>1.05</v>
@@ -1905,10 +1905,10 @@
         <v>3.5</v>
       </c>
       <c r="M12">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="N12">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="O12">
         <v>1.4</v>
@@ -1956,7 +1956,7 @@
         <v>2.2</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE12">
         <v>1.29</v>
@@ -1988,13 +1988,13 @@
         <v>89</v>
       </c>
       <c r="F13">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H13">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="I13">
         <v>1.04</v>
@@ -2009,10 +2009,10 @@
         <v>3.3</v>
       </c>
       <c r="M13">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="N13">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="O13">
         <v>1.44</v>
@@ -2092,13 +2092,13 @@
         <v>90</v>
       </c>
       <c r="F14">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="G14">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H14">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I14">
         <v>1.04</v>
@@ -2113,10 +2113,10 @@
         <v>3.7</v>
       </c>
       <c r="M14">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="N14">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="O14">
         <v>1.36</v>
@@ -2196,13 +2196,13 @@
         <v>91</v>
       </c>
       <c r="F15">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="H15">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I15">
         <v>1.02</v>
@@ -2217,10 +2217,10 @@
         <v>4.3</v>
       </c>
       <c r="M15">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="O15">
         <v>1.3</v>
@@ -2300,13 +2300,13 @@
         <v>92</v>
       </c>
       <c r="F16">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="G16">
+        <v>3.1</v>
+      </c>
+      <c r="H16">
         <v>3.15</v>
-      </c>
-      <c r="H16">
-        <v>3.06</v>
       </c>
       <c r="I16">
         <v>1.07</v>
@@ -2321,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="M16">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="N16">
         <v>1.63</v>
@@ -2372,7 +2372,7 @@
         <v>2.1</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE16">
         <v>1.33</v>
@@ -2404,13 +2404,13 @@
         <v>93</v>
       </c>
       <c r="F17">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
       <c r="G17">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H17">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="I17">
         <v>1.07</v>
@@ -2425,7 +2425,7 @@
         <v>3.1</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="N17">
         <v>1.72</v>
@@ -2511,10 +2511,10 @@
         <v>2.7</v>
       </c>
       <c r="G18">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H18">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="I18">
         <v>1.08</v>
@@ -2529,10 +2529,10 @@
         <v>2.75</v>
       </c>
       <c r="M18">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="N18">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O18">
         <v>1.49</v>
@@ -2612,13 +2612,13 @@
         <v>95</v>
       </c>
       <c r="F19">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="G19">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H19">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="I19">
         <v>1.06</v>
@@ -2633,10 +2633,10 @@
         <v>3</v>
       </c>
       <c r="M19">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="N19">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="O19">
         <v>1.45</v>
@@ -2716,13 +2716,13 @@
         <v>96</v>
       </c>
       <c r="F20">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="G20">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="I20">
         <v>1.09</v>
@@ -2737,10 +2737,10 @@
         <v>2.8</v>
       </c>
       <c r="M20">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="N20">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O20">
         <v>1.5</v>
@@ -2820,13 +2820,13 @@
         <v>97</v>
       </c>
       <c r="F21">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="G21">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I21">
         <v>1.09</v>
@@ -2841,10 +2841,10 @@
         <v>2.75</v>
       </c>
       <c r="M21">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="N21">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="O21">
         <v>1.5</v>
@@ -2930,7 +2930,7 @@
         <v>3.1</v>
       </c>
       <c r="H22">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="I22">
         <v>1.08</v>
@@ -2945,10 +2945,10 @@
         <v>2.8</v>
       </c>
       <c r="M22">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="N22">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="O22">
         <v>1.47</v>
@@ -3028,13 +3028,13 @@
         <v>99</v>
       </c>
       <c r="F23">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="G23">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H23">
-        <v>3.67</v>
+        <v>4.15</v>
       </c>
       <c r="I23">
         <v>1.08</v>
@@ -3049,10 +3049,10 @@
         <v>2.95</v>
       </c>
       <c r="M23">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="N23">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="O23">
         <v>1.47</v>
@@ -3132,13 +3132,13 @@
         <v>100</v>
       </c>
       <c r="F24">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G24">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H24">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>1.05</v>
@@ -3153,10 +3153,10 @@
         <v>3.3</v>
       </c>
       <c r="M24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="N24">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O24">
         <v>1.39</v>
@@ -3236,13 +3236,13 @@
         <v>101</v>
       </c>
       <c r="F25">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="G25">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="I25">
         <v>1.04</v>
@@ -3257,10 +3257,10 @@
         <v>3.9</v>
       </c>
       <c r="M25">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="N25">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="O25">
         <v>1.35</v>
@@ -3340,13 +3340,13 @@
         <v>102</v>
       </c>
       <c r="F26">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G26">
+        <v>3.1</v>
+      </c>
+      <c r="H26">
         <v>3.2</v>
-      </c>
-      <c r="H26">
-        <v>2.93</v>
       </c>
       <c r="I26">
         <v>1.07</v>
@@ -3361,10 +3361,10 @@
         <v>3.1</v>
       </c>
       <c r="M26">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="N26">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="O26">
         <v>1.42</v>
@@ -3444,13 +3444,13 @@
         <v>103</v>
       </c>
       <c r="F27">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G27">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H27">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I27">
         <v>1.07</v>
@@ -3465,10 +3465,10 @@
         <v>3</v>
       </c>
       <c r="M27">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="N27">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O27">
         <v>1.42</v>
@@ -3548,13 +3548,13 @@
         <v>104</v>
       </c>
       <c r="F28">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G28">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H28">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I28">
         <v>1.08</v>
@@ -3569,10 +3569,10 @@
         <v>3</v>
       </c>
       <c r="M28">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="N28">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="O28">
         <v>1.47</v>
@@ -3655,7 +3655,7 @@
         <v>2.4</v>
       </c>
       <c r="G29">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3673,10 +3673,10 @@
         <v>2.9</v>
       </c>
       <c r="M29">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="N29">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="O29">
         <v>1.47</v>
@@ -3756,13 +3756,13 @@
         <v>106</v>
       </c>
       <c r="F30">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G30">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H30">
-        <v>4.6</v>
+        <v>4.25</v>
       </c>
       <c r="I30">
         <v>1.04</v>
@@ -3777,10 +3777,10 @@
         <v>3.4</v>
       </c>
       <c r="M30">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="N30">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="O30">
         <v>1.4</v>
@@ -3860,13 +3860,13 @@
         <v>107</v>
       </c>
       <c r="F31">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="G31">
         <v>3.2</v>
       </c>
       <c r="H31">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="I31">
         <v>1.07</v>
@@ -3881,10 +3881,10 @@
         <v>3</v>
       </c>
       <c r="M31">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O31">
         <v>1.44</v>
@@ -3964,13 +3964,13 @@
         <v>108</v>
       </c>
       <c r="F32">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="G32">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H32">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="I32">
         <v>1.02</v>
@@ -3985,10 +3985,10 @@
         <v>3.5</v>
       </c>
       <c r="M32">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="N32">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="O32">
         <v>1.38</v>
@@ -4068,13 +4068,13 @@
         <v>109</v>
       </c>
       <c r="F33">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="G33">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H33">
-        <v>3.9</v>
+        <v>4.25</v>
       </c>
       <c r="I33">
         <v>1.06</v>
@@ -4089,10 +4089,10 @@
         <v>3.3</v>
       </c>
       <c r="M33">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="N33">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="O33">
         <v>1.43</v>
@@ -4172,13 +4172,13 @@
         <v>110</v>
       </c>
       <c r="F34">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="G34">
         <v>3.2</v>
       </c>
       <c r="H34">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>1.07</v>
@@ -4196,7 +4196,7 @@
         <v>2</v>
       </c>
       <c r="N34">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="O34">
         <v>1.4</v>
@@ -4276,13 +4276,13 @@
         <v>111</v>
       </c>
       <c r="F35">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="G35">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="H35">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="I35">
         <v>1.02</v>
@@ -4297,10 +4297,10 @@
         <v>5.65</v>
       </c>
       <c r="M35">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="N35">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O35">
         <v>1.25</v>
@@ -4547,28 +4547,28 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
   </sheetData>
